--- a/ОписаниеИзменений/Описание изменений по форме/0004_Доработки документов для отражения в них информации о распределении.xlsx
+++ b/ОписаниеИзменений/Описание изменений по форме/0004_Доработки документов для отражения в них информации о распределении.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\IGS_BSO\ОписаниеИзменений\Описание изменений по форме\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C1754C-5112-4524-8466-2ABB2FF13A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79188436-DDBD-4189-A551-F19CC3EAF774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,13 +99,13 @@
     <t>ОбработкаПроведения() - изменен</t>
   </si>
   <si>
-    <t>включены объекты: Документ.АвансовыйОтчет</t>
-  </si>
-  <si>
     <t>Доработки документов для отражения в них информации о распределении: Авансовые отчеты. Указание буровой установки, скважины, куста, проекта, периода оказания услуги.</t>
   </si>
   <si>
     <t>Доработка документа "Авансовый отчет" для отражения в нем информации о распределении</t>
+  </si>
+  <si>
+    <t>Включены объекты: Документ.АвансовыйОтчет</t>
   </si>
 </sst>
 </file>
@@ -211,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -241,9 +241,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -267,6 +264,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -279,29 +297,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,7 +583,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,10 +629,10 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="27">
         <v>45939</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -664,10 +661,10 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -696,10 +693,10 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -728,10 +725,10 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -760,10 +757,10 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -792,10 +789,10 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -824,8 +821,8 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -854,10 +851,10 @@
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -886,10 +883,10 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>25</v>
+      <c r="B10" s="22" t="s">
+        <v>24</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -918,10 +915,10 @@
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>26</v>
+      <c r="B11" s="18" t="s">
+        <v>25</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -975,11 +972,11 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1039,7 +1036,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1073,14 +1070,14 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="5"/>
@@ -1107,9 +1104,9 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1135,9 +1132,9 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1163,9 +1160,9 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1191,9 +1188,9 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1219,9 +1216,9 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1247,9 +1244,9 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1275,9 +1272,9 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1303,9 +1300,9 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1331,9 +1328,9 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1359,9 +1356,9 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1387,9 +1384,9 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1415,9 +1412,9 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="12"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1443,9 +1440,9 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="12"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1471,9 +1468,9 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1499,9 +1496,9 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="12"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1527,9 +1524,9 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="12"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1555,9 +1552,9 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="12"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1583,9 +1580,9 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="12"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1611,9 +1608,9 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="12"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1639,9 +1636,9 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="12"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1667,9 +1664,9 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="12"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1695,9 +1692,9 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="12"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1723,9 +1720,9 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="12"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1751,9 +1748,9 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1779,9 +1776,9 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1807,9 +1804,9 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1835,9 +1832,9 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1863,9 +1860,9 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1891,9 +1888,9 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1919,9 +1916,9 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1947,9 +1944,9 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="1"/>
       <c r="E47" s="8"/>
       <c r="F47" s="1"/>
@@ -1975,9 +1972,9 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2003,9 +2000,9 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2031,9 +2028,9 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -28576,17 +28573,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A13:C13"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
